--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/qpp011c.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/qpp011c.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ケア対象者一覧!$A$1:$F$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ケア対象者一覧!$A$1:$G$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ケア対象者一覧!$6:$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>住　民　税　納　付　先</t>
     <rPh sb="0" eb="1">
@@ -53,16 +53,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>人　　数</t>
-    <rPh sb="0" eb="1">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>納　　付　　額</t>
     <rPh sb="0" eb="1">
       <t>オサメ</t>
@@ -80,35 +70,56 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>&amp;=list.value</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【　住民税納付先 :　　　　　　　　　                                                   </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【　処理年月 :　　　　　　　　　                                】　</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社　員　名</t>
+    <rPh sb="0" eb="1">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>&amp;=list.resiTaxAutonomy</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&amp;=list.value</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【　住民税納付先 :　　　　　　　　　                                                   </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>~</t>
+    <t>&amp;=list.code</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&amp;=list.name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&amp;=header.companyName</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&amp;=header.startResiTaxAutonomy(bean)</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>&amp;=header.lateResiTaxAutonomy(bean)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&amp;=header.startResiTaxAutonomy(bean)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【　処理年月 :　　　　　　　　　                                】　</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&amp;=list.name</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -189,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -201,6 +212,15 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -211,22 +231,69 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="double">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -236,105 +303,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -345,7 +313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -360,68 +328,62 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -746,66 +708,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="32.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="31" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -813,58 +778,74 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D8:F8"/>
+  <mergeCells count="5">
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A6:B7"/>
-    <mergeCell ref="D6:F7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:G7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.47244094488188998" right="0.47244094488188998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="90" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L【　日通システム株式会社    】&amp;C&amp;"+,標準"&amp;18住民税チェックリスト（納付先別）&amp;R&amp;"+,標準"&amp;P/&amp;N</oddHeader>
+    <oddHeader>&amp;C&amp;"+,標準"&amp;18住民税チェックリスト（納付先別）&amp;R&amp;"+,標準"&amp;P/&amp;N</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/qpp011c.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/qpp011c.xlsx
@@ -78,10 +78,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>~</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>【　処理年月 :　　　　　　　　　                                】　</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -111,15 +107,19 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&amp;=header.companyName</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>&amp;=header.startResiTaxAutonomy(bean)</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>&amp;=header.lateResiTaxAutonomy(bean)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&amp;=header.date(bean)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>～</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -711,7 +711,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -730,23 +730,23 @@
         <v>4</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="1"/>
@@ -784,7 +784,7 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="19" t="s">
@@ -813,13 +813,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>3</v>
@@ -845,7 +845,7 @@
   <pageMargins left="0.47244094488188998" right="0.47244094488188998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="90" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"+,標準"&amp;18住民税チェックリスト（納付先別）&amp;R&amp;"+,標準"&amp;P/&amp;N</oddHeader>
+    <oddHeader>&amp;C&amp;"+,標準"&amp;18住民税チェックリスト（社員明細）&amp;R&amp;"+,標準"&amp;P/&amp;N</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/qpp011c.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/qpp011c.xlsx
@@ -16,8 +16,8 @@
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ケア対象者一覧!$A$1:$G$8</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">ケア対象者一覧!$6:$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ケア対象者一覧!$A$1:$G$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ケア対象者一覧!$3:$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>住　民　税　納　付　先</t>
     <rPh sb="0" eb="1">
@@ -70,10 +70,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&amp;=list.value</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t xml:space="preserve">【　住民税納付先 :　　　　　　　　　                                                   </t>
     <phoneticPr fontId="3"/>
   </si>
@@ -107,19 +103,19 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&amp;=header.startResiTaxAutonomy(bean)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&amp;=header.lateResiTaxAutonomy(bean)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>&amp;=header.date(bean)</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>～</t>
+    <t>&amp;=list.unit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&amp;=list.value</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&amp;=header.resiTaxAutonomy(bean)</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -192,41 +188,25 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5F1F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -240,63 +220,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -313,7 +238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,67 +248,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -423,6 +322,7 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFC5F1F7"/>
       <color rgb="FF0041D2"/>
       <color rgb="FFFF7005"/>
       <color rgb="FFDE8F00"/>
@@ -708,138 +608,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="32.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="17.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
+    <row r="4" spans="1:11" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+    <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+    <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B8" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:G7"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.47244094488188998" right="0.47244094488188998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/qpp011c.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/qpp011c.xlsx
@@ -16,8 +16,8 @@
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ケア対象者一覧!$A$1:$G$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">ケア対象者一覧!$3:$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ケア対象者一覧!$A$1:$G$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ケア対象者一覧!$4:$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>住　民　税　納　付　先</t>
     <rPh sb="0" eb="1">
@@ -70,27 +70,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">【　住民税納付先 :　　　　　　　　　                                                   </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>【　処理年月 :　　　　　　　　　                                】　</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>社　員　名</t>
-    <rPh sb="0" eb="1">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>&amp;=list.resiTaxAutonomy</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -115,7 +98,23 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>【　住民税納付先 :　　</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>&amp;=header.resiTaxAutonomy(bean)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">　　　　　　　　                                                   </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&amp;=header.textLabel(bean)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&amp;=header.textColumn(bean)</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -123,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +182,13 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -238,7 +244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -266,6 +272,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -283,6 +292,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -608,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -625,110 +640,124 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>10</v>
-      </c>
+    <row r="5" spans="1:11" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B8" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" s="5"/>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B1:G1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.47244094488188998" right="0.47244094488188998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="90" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"+,標準"&amp;18住民税チェックリスト（社員明細）&amp;R&amp;"+,標準"&amp;P/&amp;N</oddHeader>
+    <oddHeader>&amp;R&amp;"+,標準"&amp;P/&amp;N</oddHeader>
   </headerFooter>
 </worksheet>
 </file>